--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Welmer\Documents\UiPath\Calcular_Codigo Cliente_hash\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38623F7B-87DD-4397-A220-E5EC1D25FC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0808FB-7C29-4069-B1E2-7DCACD91BAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,29 +171,17 @@
     <t>http://www.sha1-online.com</t>
   </si>
   <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>http://www.acme-test.com</t>
-    </r>
-  </si>
-  <si>
     <t>System1_Credential</t>
+  </si>
+  <si>
+    <t>http://www.acme-test.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -222,13 +210,6 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -581,7 +562,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -663,7 +644,7 @@
         <v>45</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -676,10 +657,10 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1676,7 +1657,7 @@
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{9C708D44-268F-42F9-BB1F-BB4E43BD5133}"/>
-    <hyperlink ref="B6" r:id="rId2" display="http://www.acme-test.com/" xr:uid="{C40F9132-A50F-446C-AE94-AFAABA03C4C9}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{C40F9132-A50F-446C-AE94-AFAABA03C4C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
